--- a/results_all/Screener_Analysis_All_2026-01-05.xlsx
+++ b/results_all/Screener_Analysis_All_2026-01-05.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="918">
   <si>
     <t>Symbol</t>
   </si>
@@ -91,16 +91,16 @@
     <t>Face Value</t>
   </si>
   <si>
-    <t>₹5,260Cr.</t>
-  </si>
-  <si>
-    <t>₹718</t>
-  </si>
-  <si>
-    <t>₹1,157/668</t>
-  </si>
-  <si>
-    <t>25.9</t>
+    <t>₹5,148Cr.</t>
+  </si>
+  <si>
+    <t>₹703</t>
+  </si>
+  <si>
+    <t>₹1,151/668</t>
+  </si>
+  <si>
+    <t>25.3</t>
   </si>
   <si>
     <t>₹312</t>
@@ -586,7 +586,7 @@
     <t>-2.10</t>
   </si>
   <si>
-    <t>-0%</t>
+    <t>0%</t>
   </si>
   <si>
     <t>1070</t>
@@ -706,9 +706,6 @@
     <t>8%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>6.12</t>
   </si>
   <si>
@@ -868,555 +865,555 @@
     <t>1 Year:</t>
   </si>
   <si>
+    <t>51%</t>
+  </si>
+  <si>
+    <t>-36%</t>
+  </si>
+  <si>
+    <t>Table 6</t>
+  </si>
+  <si>
+    <t>Return on Equity</t>
+  </si>
+  <si>
+    <t>Return on Equity.1</t>
+  </si>
+  <si>
+    <t>Last Year:</t>
+  </si>
+  <si>
+    <t>Table 7</t>
+  </si>
+  <si>
+    <t>Equity Capital</t>
+  </si>
+  <si>
+    <t>Reserves</t>
+  </si>
+  <si>
+    <t>Borrowings +</t>
+  </si>
+  <si>
+    <t>Other Liabilities +</t>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+  </si>
+  <si>
+    <t>Fixed Assets +</t>
+  </si>
+  <si>
+    <t>CWIP</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>Other Assets +</t>
+  </si>
+  <si>
+    <t>Total Assets</t>
+  </si>
+  <si>
+    <t>Table 8</t>
+  </si>
+  <si>
+    <t>Cash from Operating Activity +</t>
+  </si>
+  <si>
+    <t>Cash from Investing Activity +</t>
+  </si>
+  <si>
+    <t>Cash from Financing Activity +</t>
+  </si>
+  <si>
+    <t>Net Cash Flow</t>
+  </si>
+  <si>
+    <t>Table 9</t>
+  </si>
+  <si>
+    <t>Debtor Days</t>
+  </si>
+  <si>
+    <t>Inventory Days</t>
+  </si>
+  <si>
+    <t>Days Payable</t>
+  </si>
+  <si>
+    <t>Cash Conversion Cycle</t>
+  </si>
+  <si>
+    <t>Working Capital Days</t>
+  </si>
+  <si>
+    <t>ROCE %</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>-17</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>-25</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>-54</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>-64</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>-66</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>-21</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>-44</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>Table 10</t>
+  </si>
+  <si>
+    <t>Promoters +</t>
+  </si>
+  <si>
+    <t>FIIs +</t>
+  </si>
+  <si>
+    <t>DIIs +</t>
+  </si>
+  <si>
+    <t>Public +</t>
+  </si>
+  <si>
+    <t>No. of Shareholders</t>
+  </si>
+  <si>
+    <t>20.97%</t>
+  </si>
+  <si>
+    <t>14.65%</t>
+  </si>
+  <si>
+    <t>24.21%</t>
+  </si>
+  <si>
+    <t>40.16%</t>
+  </si>
+  <si>
+    <t>45731</t>
+  </si>
+  <si>
+    <t>11.07%</t>
+  </si>
+  <si>
+    <t>17.22%</t>
+  </si>
+  <si>
+    <t>31.35%</t>
+  </si>
+  <si>
+    <t>40.36%</t>
+  </si>
+  <si>
+    <t>44316</t>
+  </si>
+  <si>
+    <t>11.06%</t>
+  </si>
+  <si>
+    <t>16.20%</t>
+  </si>
+  <si>
+    <t>32.31%</t>
+  </si>
+  <si>
+    <t>40.44%</t>
+  </si>
+  <si>
+    <t>49680</t>
+  </si>
+  <si>
+    <t>11.05%</t>
+  </si>
+  <si>
+    <t>16.96%</t>
+  </si>
+  <si>
+    <t>32.68%</t>
+  </si>
+  <si>
+    <t>39.31%</t>
+  </si>
+  <si>
+    <t>62452</t>
+  </si>
+  <si>
+    <t>20.46%</t>
+  </si>
+  <si>
+    <t>31.55%</t>
+  </si>
+  <si>
+    <t>36.93%</t>
+  </si>
+  <si>
+    <t>76070</t>
+  </si>
+  <si>
+    <t>10.58%</t>
+  </si>
+  <si>
+    <t>21.21%</t>
+  </si>
+  <si>
+    <t>30.03%</t>
+  </si>
+  <si>
+    <t>38.18%</t>
+  </si>
+  <si>
+    <t>67060</t>
+  </si>
+  <si>
+    <t>9.42%</t>
+  </si>
+  <si>
+    <t>26.55%</t>
+  </si>
+  <si>
+    <t>31.79%</t>
+  </si>
+  <si>
+    <t>32.26%</t>
+  </si>
+  <si>
+    <t>53287</t>
+  </si>
+  <si>
+    <t>9.39%</t>
+  </si>
+  <si>
+    <t>27.02%</t>
+  </si>
+  <si>
+    <t>33.77%</t>
+  </si>
+  <si>
+    <t>29.82%</t>
+  </si>
+  <si>
+    <t>48570</t>
+  </si>
+  <si>
+    <t>9.38%</t>
+  </si>
+  <si>
+    <t>26.54%</t>
+  </si>
+  <si>
+    <t>37.01%</t>
+  </si>
+  <si>
+    <t>27.08%</t>
+  </si>
+  <si>
+    <t>47873</t>
+  </si>
+  <si>
+    <t>25.79%</t>
+  </si>
+  <si>
+    <t>36.82%</t>
+  </si>
+  <si>
+    <t>27.99%</t>
+  </si>
+  <si>
+    <t>55507</t>
+  </si>
+  <si>
+    <t>9.17%</t>
+  </si>
+  <si>
+    <t>24.88%</t>
+  </si>
+  <si>
+    <t>37.17%</t>
+  </si>
+  <si>
+    <t>28.78%</t>
+  </si>
+  <si>
+    <t>61376</t>
+  </si>
+  <si>
+    <t>9.16%</t>
+  </si>
+  <si>
+    <t>22.93%</t>
+  </si>
+  <si>
+    <t>38.94%</t>
+  </si>
+  <si>
+    <t>28.97%</t>
+  </si>
+  <si>
+    <t>64553</t>
+  </si>
+  <si>
+    <t>Table 11</t>
+  </si>
+  <si>
+    <t>39.96%</t>
+  </si>
+  <si>
+    <t>0.08%</t>
+  </si>
+  <si>
+    <t>1.28%</t>
+  </si>
+  <si>
+    <t>58.68%</t>
+  </si>
+  <si>
+    <t>25744</t>
+  </si>
+  <si>
+    <t>39.93%</t>
+  </si>
+  <si>
+    <t>0.77%</t>
+  </si>
+  <si>
+    <t>1.05%</t>
+  </si>
+  <si>
+    <t>58.25%</t>
+  </si>
+  <si>
+    <t>18590</t>
+  </si>
+  <si>
+    <t>32.93%</t>
+  </si>
+  <si>
+    <t>10.32%</t>
+  </si>
+  <si>
+    <t>4.87%</t>
+  </si>
+  <si>
+    <t>51.88%</t>
+  </si>
+  <si>
+    <t>17764</t>
+  </si>
+  <si>
+    <t>33.17%</t>
+  </si>
+  <si>
+    <t>8.37%</t>
+  </si>
+  <si>
+    <t>4.81%</t>
+  </si>
+  <si>
+    <t>53.65%</t>
+  </si>
+  <si>
+    <t>18459</t>
+  </si>
+  <si>
+    <t>33.12%</t>
+  </si>
+  <si>
+    <t>8.31%</t>
+  </si>
+  <si>
+    <t>3.69%</t>
+  </si>
+  <si>
+    <t>54.89%</t>
+  </si>
+  <si>
+    <t>24611</t>
+  </si>
+  <si>
+    <t>24.09%</t>
+  </si>
+  <si>
+    <t>11.03%</t>
+  </si>
+  <si>
+    <t>27.20%</t>
+  </si>
+  <si>
+    <t>37.68%</t>
+  </si>
+  <si>
+    <t>36912</t>
+  </si>
+  <si>
+    <t>RADICO</t>
+  </si>
+  <si>
+    <t>₹41,569Cr.</t>
+  </si>
+  <si>
+    <t>₹3,105</t>
+  </si>
+  <si>
+    <t>₹3,695/1,846</t>
+  </si>
+  <si>
+    <t>89.5</t>
+  </si>
+  <si>
+    <t>₹218</t>
+  </si>
+  <si>
+    <t>0.13%</t>
+  </si>
+  <si>
+    <t>16.2%</t>
+  </si>
+  <si>
+    <t>13.6%</t>
+  </si>
+  <si>
+    <t>₹2.00</t>
+  </si>
+  <si>
+    <t>Pros</t>
+  </si>
+  <si>
+    <t>Company has reduced debt.</t>
+  </si>
+  <si>
+    <t>Stock is trading at 14.2 times its book value</t>
+  </si>
+  <si>
+    <t>Company has a low return on equity of 11.7% over last 3 years.</t>
+  </si>
+  <si>
+    <t>761</t>
+  </si>
+  <si>
+    <t>671</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3.88</t>
+  </si>
+  <si>
+    <t>792</t>
+  </si>
+  <si>
+    <t>695</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>4.27</t>
+  </si>
+  <si>
+    <t>832</t>
+  </si>
+  <si>
+    <t>753</t>
+  </si>
+  <si>
     <t>27%</t>
   </si>
   <si>
-    <t>51%</t>
-  </si>
-  <si>
-    <t>-37%</t>
-  </si>
-  <si>
-    <t>Table 6</t>
-  </si>
-  <si>
-    <t>Return on Equity</t>
-  </si>
-  <si>
-    <t>Return on Equity.1</t>
-  </si>
-  <si>
-    <t>Last Year:</t>
-  </si>
-  <si>
-    <t>Table 7</t>
-  </si>
-  <si>
-    <t>Equity Capital</t>
-  </si>
-  <si>
-    <t>Reserves</t>
-  </si>
-  <si>
-    <t>Borrowings +</t>
-  </si>
-  <si>
-    <t>Other Liabilities +</t>
-  </si>
-  <si>
-    <t>Total Liabilities</t>
-  </si>
-  <si>
-    <t>Fixed Assets +</t>
-  </si>
-  <si>
-    <t>CWIP</t>
-  </si>
-  <si>
-    <t>Investments</t>
-  </si>
-  <si>
-    <t>Other Assets +</t>
-  </si>
-  <si>
-    <t>Total Assets</t>
-  </si>
-  <si>
-    <t>Table 8</t>
-  </si>
-  <si>
-    <t>Cash from Operating Activity +</t>
-  </si>
-  <si>
-    <t>Cash from Investing Activity +</t>
-  </si>
-  <si>
-    <t>Cash from Financing Activity +</t>
-  </si>
-  <si>
-    <t>Net Cash Flow</t>
-  </si>
-  <si>
-    <t>Table 9</t>
-  </si>
-  <si>
-    <t>Debtor Days</t>
-  </si>
-  <si>
-    <t>Inventory Days</t>
-  </si>
-  <si>
-    <t>Days Payable</t>
-  </si>
-  <si>
-    <t>Cash Conversion Cycle</t>
-  </si>
-  <si>
-    <t>Working Capital Days</t>
-  </si>
-  <si>
-    <t>ROCE %</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>-17</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>-25</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>-54</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>-64</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>-66</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>-21</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>-44</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>Table 10</t>
-  </si>
-  <si>
-    <t>Promoters +</t>
-  </si>
-  <si>
-    <t>FIIs +</t>
-  </si>
-  <si>
-    <t>DIIs +</t>
-  </si>
-  <si>
-    <t>Public +</t>
-  </si>
-  <si>
-    <t>No. of Shareholders</t>
-  </si>
-  <si>
-    <t>20.97%</t>
-  </si>
-  <si>
-    <t>14.65%</t>
-  </si>
-  <si>
-    <t>24.21%</t>
-  </si>
-  <si>
-    <t>40.16%</t>
-  </si>
-  <si>
-    <t>45731</t>
-  </si>
-  <si>
-    <t>11.07%</t>
-  </si>
-  <si>
-    <t>17.22%</t>
-  </si>
-  <si>
-    <t>31.35%</t>
-  </si>
-  <si>
-    <t>40.36%</t>
-  </si>
-  <si>
-    <t>44316</t>
-  </si>
-  <si>
-    <t>11.06%</t>
-  </si>
-  <si>
-    <t>16.20%</t>
-  </si>
-  <si>
-    <t>32.31%</t>
-  </si>
-  <si>
-    <t>40.44%</t>
-  </si>
-  <si>
-    <t>49680</t>
-  </si>
-  <si>
-    <t>11.05%</t>
-  </si>
-  <si>
-    <t>16.96%</t>
-  </si>
-  <si>
-    <t>32.68%</t>
-  </si>
-  <si>
-    <t>39.31%</t>
-  </si>
-  <si>
-    <t>62452</t>
-  </si>
-  <si>
-    <t>20.46%</t>
-  </si>
-  <si>
-    <t>31.55%</t>
-  </si>
-  <si>
-    <t>36.93%</t>
-  </si>
-  <si>
-    <t>76070</t>
-  </si>
-  <si>
-    <t>10.58%</t>
-  </si>
-  <si>
-    <t>21.21%</t>
-  </si>
-  <si>
-    <t>30.03%</t>
-  </si>
-  <si>
-    <t>38.18%</t>
-  </si>
-  <si>
-    <t>67060</t>
-  </si>
-  <si>
-    <t>9.42%</t>
-  </si>
-  <si>
-    <t>26.55%</t>
-  </si>
-  <si>
-    <t>31.79%</t>
-  </si>
-  <si>
-    <t>32.26%</t>
-  </si>
-  <si>
-    <t>53287</t>
-  </si>
-  <si>
-    <t>9.39%</t>
-  </si>
-  <si>
-    <t>27.02%</t>
-  </si>
-  <si>
-    <t>33.77%</t>
-  </si>
-  <si>
-    <t>29.82%</t>
-  </si>
-  <si>
-    <t>48570</t>
-  </si>
-  <si>
-    <t>9.38%</t>
-  </si>
-  <si>
-    <t>26.54%</t>
-  </si>
-  <si>
-    <t>37.01%</t>
-  </si>
-  <si>
-    <t>27.08%</t>
-  </si>
-  <si>
-    <t>47873</t>
-  </si>
-  <si>
-    <t>25.79%</t>
-  </si>
-  <si>
-    <t>36.82%</t>
-  </si>
-  <si>
-    <t>27.99%</t>
-  </si>
-  <si>
-    <t>55507</t>
-  </si>
-  <si>
-    <t>9.17%</t>
-  </si>
-  <si>
-    <t>24.88%</t>
-  </si>
-  <si>
-    <t>37.17%</t>
-  </si>
-  <si>
-    <t>28.78%</t>
-  </si>
-  <si>
-    <t>61376</t>
-  </si>
-  <si>
-    <t>9.16%</t>
-  </si>
-  <si>
-    <t>22.93%</t>
-  </si>
-  <si>
-    <t>38.94%</t>
-  </si>
-  <si>
-    <t>28.97%</t>
-  </si>
-  <si>
-    <t>64553</t>
-  </si>
-  <si>
-    <t>Table 11</t>
-  </si>
-  <si>
-    <t>39.96%</t>
-  </si>
-  <si>
-    <t>0.08%</t>
-  </si>
-  <si>
-    <t>1.28%</t>
-  </si>
-  <si>
-    <t>58.68%</t>
-  </si>
-  <si>
-    <t>25744</t>
-  </si>
-  <si>
-    <t>39.93%</t>
-  </si>
-  <si>
-    <t>0.77%</t>
-  </si>
-  <si>
-    <t>1.05%</t>
-  </si>
-  <si>
-    <t>58.25%</t>
-  </si>
-  <si>
-    <t>18590</t>
-  </si>
-  <si>
-    <t>32.93%</t>
-  </si>
-  <si>
-    <t>10.32%</t>
-  </si>
-  <si>
-    <t>4.87%</t>
-  </si>
-  <si>
-    <t>51.88%</t>
-  </si>
-  <si>
-    <t>17764</t>
-  </si>
-  <si>
-    <t>33.17%</t>
-  </si>
-  <si>
-    <t>8.37%</t>
-  </si>
-  <si>
-    <t>4.81%</t>
-  </si>
-  <si>
-    <t>53.65%</t>
-  </si>
-  <si>
-    <t>18459</t>
-  </si>
-  <si>
-    <t>33.12%</t>
-  </si>
-  <si>
-    <t>8.31%</t>
-  </si>
-  <si>
-    <t>3.69%</t>
-  </si>
-  <si>
-    <t>54.89%</t>
-  </si>
-  <si>
-    <t>24611</t>
-  </si>
-  <si>
-    <t>24.09%</t>
-  </si>
-  <si>
-    <t>11.03%</t>
-  </si>
-  <si>
-    <t>27.20%</t>
-  </si>
-  <si>
-    <t>37.68%</t>
-  </si>
-  <si>
-    <t>36912</t>
-  </si>
-  <si>
-    <t>RADICO</t>
-  </si>
-  <si>
-    <t>₹41,429Cr.</t>
-  </si>
-  <si>
-    <t>₹3,094</t>
-  </si>
-  <si>
-    <t>₹3,695/1,846</t>
-  </si>
-  <si>
-    <t>89.2</t>
-  </si>
-  <si>
-    <t>₹218</t>
-  </si>
-  <si>
-    <t>0.13%</t>
-  </si>
-  <si>
-    <t>16.2%</t>
-  </si>
-  <si>
-    <t>13.6%</t>
-  </si>
-  <si>
-    <t>₹2.00</t>
-  </si>
-  <si>
-    <t>Pros</t>
-  </si>
-  <si>
-    <t>Company has reduced debt.</t>
-  </si>
-  <si>
-    <t>Stock is trading at 14.2 times its book value</t>
-  </si>
-  <si>
-    <t>Company has a low return on equity of 11.7% over last 3 years.</t>
-  </si>
-  <si>
-    <t>761</t>
-  </si>
-  <si>
-    <t>671</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3.88</t>
-  </si>
-  <si>
-    <t>792</t>
-  </si>
-  <si>
-    <t>695</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>4.27</t>
-  </si>
-  <si>
-    <t>832</t>
-  </si>
-  <si>
-    <t>753</t>
-  </si>
-  <si>
     <t>2.79</t>
   </si>
   <si>
@@ -1813,7 +1810,7 @@
     <t>45%</t>
   </si>
   <si>
-    <t>42%</t>
+    <t>43%</t>
   </si>
   <si>
     <t>185</t>
@@ -2146,10 +2143,10 @@
     <t>VINEETLAB</t>
   </si>
   <si>
-    <t>₹66.1Cr.</t>
-  </si>
-  <si>
-    <t>₹34.4</t>
+    <t>₹67.8Cr.</t>
+  </si>
+  <si>
+    <t>₹35.3</t>
   </si>
   <si>
     <t>₹54.4/21.4</t>
@@ -2167,7 +2164,7 @@
     <t>₹10.0</t>
   </si>
   <si>
-    <t>Stock is trading at 4.65 times its book value</t>
+    <t>Stock is trading at 4.77 times its book value</t>
   </si>
   <si>
     <t>Company has low interest coverage ratio.</t>
@@ -2641,10 +2638,7 @@
     <t>-307%</t>
   </si>
   <si>
-    <t>-11%</t>
-  </si>
-  <si>
-    <t>-29%</t>
+    <t>-10%</t>
   </si>
   <si>
     <t>-9%</t>
@@ -3985,19 +3979,19 @@
         <v>225</v>
       </c>
       <c r="J44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K44" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -4029,19 +4023,19 @@
         <v>226</v>
       </c>
       <c r="J45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -4073,19 +4067,19 @@
         <v>227</v>
       </c>
       <c r="J46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K46" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L46" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N46" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -4170,10 +4164,10 @@
         <v>136</v>
       </c>
       <c r="M48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N48" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -4217,7 +4211,7 @@
         <v>119</v>
       </c>
       <c r="N49" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -4252,16 +4246,16 @@
         <v>130</v>
       </c>
       <c r="K50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L50" t="s">
         <v>124</v>
       </c>
       <c r="M50" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N50" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -4293,19 +4287,19 @@
         <v>147</v>
       </c>
       <c r="J51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M51" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N51" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -4334,7 +4328,7 @@
         <v>189</v>
       </c>
       <c r="I52" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="J52" t="s">
         <v>189</v>
@@ -4346,7 +4340,7 @@
         <v>77</v>
       </c>
       <c r="M52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -4378,19 +4372,19 @@
         <v>147</v>
       </c>
       <c r="J53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K53" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M53" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N53" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -4419,22 +4413,22 @@
         <v>224</v>
       </c>
       <c r="I54" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J54" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K54" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M54" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N54" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -4480,20 +4474,20 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B59" t="s">
         <v>135</v>
@@ -4501,7 +4495,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B60" t="s">
         <v>93</v>
@@ -4509,7 +4503,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B61" t="s">
         <v>72</v>
@@ -4517,7 +4511,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B62" t="s">
         <v>83</v>
@@ -4525,36 +4519,36 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B66" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B67" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B68" t="s">
         <v>125</v>
@@ -4562,7 +4556,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B69" t="s">
         <v>135</v>
@@ -4570,65 +4564,65 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B73" t="s">
-        <v>283</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B74" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B75" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B76" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B80" t="s">
         <v>72</v>
@@ -4636,7 +4630,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B81" t="s">
         <v>125</v>
@@ -4644,7 +4638,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B82" t="s">
         <v>93</v>
@@ -4652,7 +4646,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B83" t="s">
         <v>111</v>
@@ -4660,7 +4654,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4709,7 +4703,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B87">
         <v>17</v>
@@ -4753,7 +4747,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B88">
         <v>104</v>
@@ -4797,7 +4791,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B89">
         <v>311</v>
@@ -4841,7 +4835,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B90">
         <v>176</v>
@@ -4885,7 +4879,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B91">
         <v>608</v>
@@ -4929,7 +4923,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B92">
         <v>158</v>
@@ -4973,7 +4967,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -5017,7 +5011,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B94">
         <v>32</v>
@@ -5061,7 +5055,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B95">
         <v>417</v>
@@ -5105,7 +5099,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B96">
         <v>608</v>
@@ -5149,7 +5143,7 @@
     </row>
     <row r="98" spans="1:13">
       <c r="A98" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -5195,7 +5189,7 @@
     </row>
     <row r="100" spans="1:13">
       <c r="A100" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B100">
         <v>37</v>
@@ -5236,7 +5230,7 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B101">
         <v>21</v>
@@ -5277,7 +5271,7 @@
     </row>
     <row r="102" spans="1:13">
       <c r="A102" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B102">
         <v>-37</v>
@@ -5318,7 +5312,7 @@
     </row>
     <row r="103" spans="1:13">
       <c r="A103" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B103">
         <v>20</v>
@@ -5359,7 +5353,7 @@
     </row>
     <row r="105" spans="1:13">
       <c r="A105" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5405,7 +5399,7 @@
     </row>
     <row r="107" spans="1:13">
       <c r="A107" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B107" t="s">
         <v>159</v>
@@ -5417,10 +5411,10 @@
         <v>147</v>
       </c>
       <c r="E107" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F107" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G107" t="s">
         <v>110</v>
@@ -5435,7 +5429,7 @@
         <v>96</v>
       </c>
       <c r="K107" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L107" t="s">
         <v>106</v>
@@ -5446,63 +5440,63 @@
     </row>
     <row r="108" spans="1:13">
       <c r="A108" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B108" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C108" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D108" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E108" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F108" t="s">
+        <v>329</v>
+      </c>
+      <c r="G108" t="s">
         <v>331</v>
       </c>
-      <c r="G108" t="s">
-        <v>333</v>
-      </c>
       <c r="H108" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I108" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J108" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K108" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L108" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="M108" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B109" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C109" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D109" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E109" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F109" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G109" t="s">
         <v>143</v>
@@ -5528,69 +5522,69 @@
     </row>
     <row r="110" spans="1:13">
       <c r="A110" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B110" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C110" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D110" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E110" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F110" t="s">
+        <v>324</v>
+      </c>
+      <c r="G110" t="s">
+        <v>332</v>
+      </c>
+      <c r="H110" t="s">
+        <v>335</v>
+      </c>
+      <c r="I110" t="s">
         <v>326</v>
       </c>
-      <c r="G110" t="s">
-        <v>334</v>
-      </c>
-      <c r="H110" t="s">
-        <v>337</v>
-      </c>
-      <c r="I110" t="s">
-        <v>328</v>
-      </c>
       <c r="J110" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K110" t="s">
         <v>222</v>
       </c>
       <c r="L110" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M110" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B111" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C111" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D111" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E111" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F111" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G111" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H111" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I111" t="s">
         <v>215</v>
@@ -5610,7 +5604,7 @@
     </row>
     <row r="112" spans="1:13">
       <c r="A112" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B112" t="s">
         <v>218</v>
@@ -5640,7 +5634,7 @@
         <v>114</v>
       </c>
       <c r="K112" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L112" t="s">
         <v>87</v>
@@ -5651,7 +5645,7 @@
     </row>
     <row r="114" spans="1:13">
       <c r="A114" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5697,212 +5691,212 @@
     </row>
     <row r="116" spans="1:13">
       <c r="A116" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B116" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C116" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D116" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E116" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F116" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G116" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H116" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I116" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J116" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K116" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L116" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M116" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B117" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C117" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D117" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E117" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F117" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G117" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H117" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I117" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J117" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K117" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L117" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M117" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B118" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C118" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D118" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E118" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F118" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G118" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H118" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I118" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J118" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K118" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L118" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="M118" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B119" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C119" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D119" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E119" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F119" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G119" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H119" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I119" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J119" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K119" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L119" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M119" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B120" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C120" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D120" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E120" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F120" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G120" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H120" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I120" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J120" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K120" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="L120" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M120" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -5942,177 +5936,177 @@
     </row>
     <row r="124" spans="1:13">
       <c r="A124" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B124" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C124" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D124" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E124" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F124" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G124" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H124" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I124" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J124" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K124" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B125" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C125" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D125" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E125" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F125" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G125" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H125" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I125" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J125" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K125" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B126" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C126" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D126" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E126" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F126" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G126" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H126" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I126" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J126" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K126" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B127" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C127" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D127" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E127" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F127" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G127" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H127" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I127" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J127" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K127" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B128" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C128" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D128" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E128" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F128" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G128" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H128" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I128" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J128" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K128" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -6133,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6164,7 +6158,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6172,7 +6166,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6180,7 +6174,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6188,7 +6182,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6196,7 +6190,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6204,7 +6198,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6212,7 +6206,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6220,7 +6214,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -6228,7 +6222,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -6238,12 +6232,12 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -6253,12 +6247,12 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -6315,43 +6309,43 @@
         <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C26" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D26" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E26" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F26" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G26" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I26" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J26" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K26" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L26" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M26" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -6359,43 +6353,43 @@
         <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C27" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D27" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G27" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H27" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K27" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L27" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M27" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -6406,40 +6400,40 @@
         <v>193</v>
       </c>
       <c r="C28" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D28" t="s">
         <v>124</v>
       </c>
       <c r="E28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F28" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G28" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H28" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J28" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K28" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M28" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N28" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -6483,7 +6477,7 @@
         <v>87</v>
       </c>
       <c r="N29" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -6491,43 +6485,43 @@
         <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C30" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D30" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E30" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F30" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G30" t="s">
         <v>103</v>
       </c>
       <c r="H30" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I30" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J30" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K30" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L30" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M30" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N30" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -6565,7 +6559,7 @@
         <v>119</v>
       </c>
       <c r="L31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M31" t="s">
         <v>214</v>
@@ -6632,34 +6626,34 @@
         <v>201</v>
       </c>
       <c r="E33" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F33" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H33" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I33" t="s">
         <v>227</v>
       </c>
       <c r="J33" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K33" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="M33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N33" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -6673,7 +6667,7 @@
         <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>283</v>
+        <v>464</v>
       </c>
       <c r="E34" t="s">
         <v>105</v>
@@ -6691,7 +6685,7 @@
         <v>105</v>
       </c>
       <c r="J34" t="s">
-        <v>283</v>
+        <v>464</v>
       </c>
       <c r="K34" t="s">
         <v>120</v>
@@ -6714,13 +6708,13 @@
         <v>134</v>
       </c>
       <c r="C35" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D35" t="s">
         <v>198</v>
       </c>
       <c r="E35" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F35" t="s">
         <v>82</v>
@@ -6729,25 +6723,25 @@
         <v>200</v>
       </c>
       <c r="H35" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I35" t="s">
         <v>154</v>
       </c>
       <c r="J35" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K35" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M35" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="N35" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -6755,43 +6749,43 @@
         <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C36" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D36" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E36" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F36" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G36" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H36" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I36" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J36" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K36" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L36" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M36" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="N36" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -6853,43 +6847,43 @@
         <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C41" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D41" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E41" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F41" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G41" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H41" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I41" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J41" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K41" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L41" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M41" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="N41" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -6897,43 +6891,43 @@
         <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C42" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D42" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F42" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G42" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H42" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J42" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K42" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L42" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M42" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N42" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -6941,43 +6935,43 @@
         <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C43" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E43" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F43" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G43" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I43" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J43" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="K43" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L43" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M43" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="N43" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -7003,7 +6997,7 @@
         <v>77</v>
       </c>
       <c r="H44" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I44" t="s">
         <v>77</v>
@@ -7044,10 +7038,10 @@
         <v>147</v>
       </c>
       <c r="G45" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H45" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I45" t="s">
         <v>119</v>
@@ -7065,7 +7059,7 @@
         <v>103</v>
       </c>
       <c r="N45" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -7073,16 +7067,16 @@
         <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C46" t="s">
         <v>193</v>
       </c>
       <c r="D46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E46" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F46" t="s">
         <v>152</v>
@@ -7094,13 +7088,13 @@
         <v>159</v>
       </c>
       <c r="I46" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J46" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K46" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L46" t="s">
         <v>143</v>
@@ -7109,7 +7103,7 @@
         <v>200</v>
       </c>
       <c r="N46" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -7129,7 +7123,7 @@
         <v>88</v>
       </c>
       <c r="F47" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G47" t="s">
         <v>88</v>
@@ -7144,16 +7138,16 @@
         <v>71</v>
       </c>
       <c r="K47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L47" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M47" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="N47" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -7161,43 +7155,43 @@
         <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C48" t="s">
         <v>222</v>
       </c>
       <c r="D48" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E48" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F48" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G48" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H48" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I48" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J48" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K48" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L48" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M48" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="N48" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -7205,10 +7199,10 @@
         <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D49" t="s">
         <v>120</v>
@@ -7217,16 +7211,16 @@
         <v>120</v>
       </c>
       <c r="F49" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G49" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H49" t="s">
         <v>77</v>
       </c>
       <c r="I49" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J49" t="s">
         <v>105</v>
@@ -7246,43 +7240,43 @@
         <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C50" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D50" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E50" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F50" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G50" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H50" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I50" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J50" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K50" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L50" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M50" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N50" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -7290,43 +7284,43 @@
         <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C51" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D51" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E51" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F51" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G51" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H51" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I51" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J51" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K51" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L51" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M51" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N51" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -7337,7 +7331,7 @@
         <v>87</v>
       </c>
       <c r="C52" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D52" t="s">
         <v>125</v>
@@ -7358,34 +7352,34 @@
         <v>83</v>
       </c>
       <c r="J52" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K52" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L52" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="M52" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B56" t="s">
         <v>93</v>
@@ -7393,7 +7387,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B57" t="s">
         <v>87</v>
@@ -7401,7 +7395,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B58" t="s">
         <v>137</v>
@@ -7409,7 +7403,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B59" t="s">
         <v>105</v>
@@ -7417,20 +7411,20 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B63" t="s">
         <v>77</v>
@@ -7438,7 +7432,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B64" t="s">
         <v>98</v>
@@ -7446,7 +7440,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B65" t="s">
         <v>72</v>
@@ -7454,73 +7448,73 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B66" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B70" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B71" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B72" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B73" t="s">
-        <v>137</v>
+        <v>559</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B77" t="s">
         <v>93</v>
@@ -7528,7 +7522,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B78" t="s">
         <v>93</v>
@@ -7536,7 +7530,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B79" t="s">
         <v>83</v>
@@ -7544,7 +7538,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B80" t="s">
         <v>125</v>
@@ -7552,7 +7546,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -7601,7 +7595,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B84">
         <v>27</v>
@@ -7645,7 +7639,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B85">
         <v>754</v>
@@ -7689,7 +7683,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B86">
         <v>904</v>
@@ -7733,7 +7727,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B87">
         <v>332</v>
@@ -7777,7 +7771,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B88">
         <v>2017</v>
@@ -7821,7 +7815,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B89">
         <v>570</v>
@@ -7865,7 +7859,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B90">
         <v>8</v>
@@ -7909,7 +7903,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B91">
         <v>108</v>
@@ -7953,7 +7947,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B92">
         <v>1330</v>
@@ -7997,7 +7991,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B93">
         <v>2017</v>
@@ -8041,7 +8035,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -8087,7 +8081,7 @@
     </row>
     <row r="97" spans="1:13">
       <c r="A97" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B97">
         <v>137</v>
@@ -8128,7 +8122,7 @@
     </row>
     <row r="98" spans="1:13">
       <c r="A98" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B98">
         <v>-141</v>
@@ -8169,7 +8163,7 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B99">
         <v>3</v>
@@ -8210,7 +8204,7 @@
     </row>
     <row r="100" spans="1:13">
       <c r="A100" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B100">
         <v>-1</v>
@@ -8251,7 +8245,7 @@
     </row>
     <row r="102" spans="1:13">
       <c r="A102" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -8297,177 +8291,177 @@
     </row>
     <row r="104" spans="1:13">
       <c r="A104" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B104" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C104" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D104" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E104" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F104" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G104" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H104" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I104" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J104" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K104" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L104" t="s">
         <v>222</v>
       </c>
       <c r="M104" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B105" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C105" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D105" t="s">
+        <v>603</v>
+      </c>
+      <c r="E105" t="s">
+        <v>606</v>
+      </c>
+      <c r="F105" t="s">
+        <v>608</v>
+      </c>
+      <c r="G105" t="s">
+        <v>536</v>
+      </c>
+      <c r="H105" t="s">
         <v>604</v>
       </c>
-      <c r="E105" t="s">
+      <c r="I105" t="s">
+        <v>614</v>
+      </c>
+      <c r="J105" t="s">
+        <v>618</v>
+      </c>
+      <c r="K105" t="s">
+        <v>620</v>
+      </c>
+      <c r="L105" t="s">
         <v>607</v>
       </c>
-      <c r="F105" t="s">
-        <v>609</v>
-      </c>
-      <c r="G105" t="s">
-        <v>537</v>
-      </c>
-      <c r="H105" t="s">
-        <v>605</v>
-      </c>
-      <c r="I105" t="s">
-        <v>615</v>
-      </c>
-      <c r="J105" t="s">
-        <v>619</v>
-      </c>
-      <c r="K105" t="s">
-        <v>621</v>
-      </c>
-      <c r="L105" t="s">
-        <v>608</v>
-      </c>
       <c r="M105" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B106" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C106" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D106" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E106" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F106" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G106" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H106" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I106" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J106" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K106" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L106" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M106" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B107" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C107" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D107" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E107" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F107" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G107" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H107" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I107" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J107" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="K107" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L107" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M107" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B108" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C108" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D108" t="s">
         <v>106</v>
@@ -8476,33 +8470,33 @@
         <v>119</v>
       </c>
       <c r="F108" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G108" t="s">
         <v>154</v>
       </c>
       <c r="H108" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I108" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J108" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K108" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L108" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M108" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B109" t="s">
         <v>83</v>
@@ -8529,7 +8523,7 @@
         <v>137</v>
       </c>
       <c r="J109" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K109" t="s">
         <v>83</v>
@@ -8538,12 +8532,12 @@
         <v>93</v>
       </c>
       <c r="M109" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -8589,212 +8583,212 @@
     </row>
     <row r="113" spans="1:13">
       <c r="A113" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B113" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C113" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D113" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E113" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F113" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G113" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H113" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I113" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J113" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K113" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L113" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M113" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B114" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C114" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D114" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E114" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F114" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G114" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H114" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I114" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="J114" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K114" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L114" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="M114" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B115" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C115" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D115" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E115" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F115" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G115" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H115" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I115" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J115" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K115" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="L115" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M115" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B116" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C116" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D116" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E116" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F116" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G116" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H116" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I116" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J116" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K116" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="L116" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="M116" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B117" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C117" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D117" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E117" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F117" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G117" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H117" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I117" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J117" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K117" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="L117" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M117" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -8834,127 +8828,127 @@
     </row>
     <row r="121" spans="1:13">
       <c r="A121" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B121" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C121" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D121" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E121" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F121" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G121" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H121" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I121" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="J121" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="K121" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B122" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C122" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D122" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E122" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F122" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G122" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H122" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I122" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J122" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="K122" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B123" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C123" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D123" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E123" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F123" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G123" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H123" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I123" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J123" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="K123" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B124" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C124" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D124" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E124" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F124" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G124" t="s">
         <v>29</v>
@@ -8974,72 +8968,72 @@
     </row>
     <row r="125" spans="1:13">
       <c r="A125" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B125" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C125" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D125" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E125" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F125" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G125" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H125" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I125" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J125" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="K125" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B126" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C126" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D126" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E126" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F126" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G126" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H126" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I126" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J126" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K126" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -9060,7 +9054,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9091,7 +9085,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -9099,7 +9093,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -9107,7 +9101,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -9120,7 +9114,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -9136,7 +9130,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -9144,7 +9138,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -9152,7 +9146,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -9167,27 +9161,27 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -9244,43 +9238,43 @@
         <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C27" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D27" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E27" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F27" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G27" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H27" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I27" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="J27" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="K27" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="L27" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="M27" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="N27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -9288,43 +9282,43 @@
         <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C28" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D28" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E28" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F28" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G28" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H28" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I28" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J28" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K28" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="L28" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="M28" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="N28" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -9332,43 +9326,43 @@
         <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C29" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D29" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E29" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F29" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G29" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H29" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I29" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J29" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K29" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="L29" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="M29" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="N29" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -9376,43 +9370,43 @@
         <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C30" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D30" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E30" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F30" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G30" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H30" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I30" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J30" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="K30" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="L30" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="M30" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="N30" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -9420,43 +9414,43 @@
         <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C31" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D31" t="s">
+        <v>745</v>
+      </c>
+      <c r="E31" t="s">
+        <v>745</v>
+      </c>
+      <c r="F31" t="s">
+        <v>765</v>
+      </c>
+      <c r="G31" t="s">
+        <v>765</v>
+      </c>
+      <c r="H31" t="s">
+        <v>737</v>
+      </c>
+      <c r="I31" t="s">
         <v>746</v>
       </c>
-      <c r="E31" t="s">
-        <v>746</v>
-      </c>
-      <c r="F31" t="s">
-        <v>766</v>
-      </c>
-      <c r="G31" t="s">
-        <v>766</v>
-      </c>
-      <c r="H31" t="s">
-        <v>738</v>
-      </c>
-      <c r="I31" t="s">
-        <v>747</v>
-      </c>
       <c r="J31" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K31" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="L31" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="M31" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N31" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -9464,43 +9458,43 @@
         <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C32" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D32" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E32" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F32" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G32" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H32" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="I32" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J32" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K32" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="L32" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="M32" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="N32" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -9508,43 +9502,43 @@
         <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C33" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D33" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E33" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F33" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G33" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H33" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I33" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J33" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K33" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="L33" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="M33" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="N33" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -9552,43 +9546,43 @@
         <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C34" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D34" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E34" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F34" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G34" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H34" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="I34" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J34" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="K34" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="L34" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="M34" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="N34" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -9596,43 +9590,43 @@
         <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C35" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D35" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E35" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F35" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G35" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H35" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="I35" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J35" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="K35" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="L35" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="M35" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="N35" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -9640,43 +9634,43 @@
         <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C36" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D36" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E36" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F36" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G36" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H36" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="I36" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J36" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="K36" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="L36" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="M36" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="N36" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -9684,43 +9678,43 @@
         <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C37" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D37" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E37" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F37" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G37" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="I37" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J37" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="K37" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="L37" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="M37" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="N37" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -9764,25 +9758,25 @@
         <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C42" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E42" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F42" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G42" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H42" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -9790,22 +9784,22 @@
         <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C43" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D43" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E43" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F43" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G43" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H43" t="s">
         <v>152</v>
@@ -9816,13 +9810,13 @@
         <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C44" t="s">
         <v>126</v>
       </c>
       <c r="D44" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E44" t="s">
         <v>126</v>
@@ -9831,10 +9825,10 @@
         <v>95</v>
       </c>
       <c r="G44" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H44" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -9854,10 +9848,10 @@
         <v>218</v>
       </c>
       <c r="G45" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H45" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -9865,25 +9859,25 @@
         <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C46" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D46" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E46" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F46" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G46" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H46" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -9891,16 +9885,16 @@
         <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C47" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D47" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E47" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F47" t="s">
         <v>103</v>
@@ -9917,25 +9911,25 @@
         <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C48" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D48" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E48" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F48" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G48" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H48" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -9943,7 +9937,7 @@
         <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C49" t="s">
         <v>142</v>
@@ -9952,16 +9946,16 @@
         <v>94</v>
       </c>
       <c r="E49" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F49" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G49" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H49" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -9969,19 +9963,19 @@
         <v>65</v>
       </c>
       <c r="B50" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="C50" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D50" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E50" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F50" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G50" t="s">
         <v>207</v>
@@ -9992,25 +9986,25 @@
         <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C51" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D51" t="s">
         <v>95</v>
       </c>
       <c r="E51" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F51" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G51" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H51" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -10018,25 +10012,25 @@
         <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C52" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D52" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E52" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F52" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G52" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H52" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -10044,207 +10038,207 @@
         <v>179</v>
       </c>
       <c r="B53" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="C53" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="D53" t="s">
         <v>125</v>
       </c>
       <c r="E53" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="F53" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="G53" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B57" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B58" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B59" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B60" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B64" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B65" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B66" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B67" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B71" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B72" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B73" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B74" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B78" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B79" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B80" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B81" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -10275,7 +10269,7 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B85">
         <v>0.41</v>
@@ -10301,7 +10295,7 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B86">
         <v>-0</v>
@@ -10327,7 +10321,7 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -10353,7 +10347,7 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -10379,7 +10373,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -10405,7 +10399,7 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -10431,7 +10425,7 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -10457,7 +10451,7 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -10483,7 +10477,7 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -10509,7 +10503,7 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -10535,7 +10529,7 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -10563,7 +10557,7 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -10586,7 +10580,7 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -10609,7 +10603,7 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -10632,7 +10626,7 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -10655,7 +10649,7 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -10683,10 +10677,10 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C105" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D105" t="s">
         <v>152</v>
@@ -10695,101 +10689,101 @@
         <v>143</v>
       </c>
       <c r="F105" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G105" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C106" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D106" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E106" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F106" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G106" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C107" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D107" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E107" t="s">
         <v>200</v>
       </c>
       <c r="F107" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G107" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C108" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D108" t="s">
         <v>75</v>
       </c>
       <c r="E108" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F108" t="s">
+        <v>880</v>
+      </c>
+      <c r="G108" t="s">
         <v>882</v>
-      </c>
-      <c r="G108" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C109" t="s">
         <v>73</v>
       </c>
       <c r="D109" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E109" t="s">
         <v>127</v>
       </c>
       <c r="F109" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G109" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C110" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D110" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E110" t="s">
         <v>135</v>
@@ -10798,12 +10792,12 @@
         <v>98</v>
       </c>
       <c r="G110" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -10849,48 +10843,48 @@
     </row>
     <row r="114" spans="1:13">
       <c r="A114" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B114" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C114" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D114" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E114" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="F114" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G114" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="H114" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="I114" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="J114" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="K114" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="L114" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="M114" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B115" t="s">
         <v>29</v>
@@ -10905,7 +10899,7 @@
         <v>29</v>
       </c>
       <c r="F115" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="G115" t="s">
         <v>29</v>
@@ -10931,89 +10925,89 @@
     </row>
     <row r="116" spans="1:13">
       <c r="A116" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B116" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C116" t="s">
+        <v>889</v>
+      </c>
+      <c r="D116" t="s">
         <v>891</v>
       </c>
-      <c r="D116" t="s">
-        <v>893</v>
-      </c>
       <c r="E116" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F116" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G116" t="s">
+        <v>899</v>
+      </c>
+      <c r="H116" t="s">
         <v>901</v>
       </c>
-      <c r="H116" t="s">
-        <v>903</v>
-      </c>
       <c r="I116" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="J116" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="K116" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="L116" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="M116" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B117" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C117" t="s">
+        <v>890</v>
+      </c>
+      <c r="D117" t="s">
         <v>892</v>
       </c>
-      <c r="D117" t="s">
-        <v>894</v>
-      </c>
       <c r="E117" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F117" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="G117" t="s">
+        <v>900</v>
+      </c>
+      <c r="H117" t="s">
         <v>902</v>
       </c>
-      <c r="H117" t="s">
-        <v>904</v>
-      </c>
       <c r="I117" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="J117" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="K117" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="L117" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="M117" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -11038,62 +11032,62 @@
     </row>
     <row r="121" spans="1:13">
       <c r="A121" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B121" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C121" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D121" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E121" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F121" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B122" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C122" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D122" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E122" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F122" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B123" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C123" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D123" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E123" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F123" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
   </sheetData>
